--- a/src/main/java/testData/departmentmaster.xlsx
+++ b/src/main/java/testData/departmentmaster.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="7170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="7170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DeptName" sheetId="1" r:id="rId1"/>
+    <sheet name="DesignationName" sheetId="2" r:id="rId2"/>
+    <sheet name="OrganizationName" sheetId="3" r:id="rId3"/>
+    <sheet name="LacationMaster" sheetId="4" r:id="rId4"/>
+    <sheet name="BranchMaster" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Description</t>
   </si>
@@ -32,10 +36,106 @@
     <t>DepartmentName</t>
   </si>
   <si>
-    <t>Hello Test</t>
-  </si>
-  <si>
-    <t>supradeeptest</t>
+    <t>Hello Testing department</t>
+  </si>
+  <si>
+    <t>desCode</t>
+  </si>
+  <si>
+    <t>desiName</t>
+  </si>
+  <si>
+    <t>DeptName</t>
+  </si>
+  <si>
+    <t>PSS</t>
+  </si>
+  <si>
+    <t>QAFounder</t>
+  </si>
+  <si>
+    <t>companyPerfix</t>
+  </si>
+  <si>
+    <t>Employeecode</t>
+  </si>
+  <si>
+    <t>contactname</t>
+  </si>
+  <si>
+    <t>companyAdress</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>companyphone</t>
+  </si>
+  <si>
+    <t>companyemail</t>
+  </si>
+  <si>
+    <t>companywebsite</t>
+  </si>
+  <si>
+    <t>MAMA</t>
+  </si>
+  <si>
+    <t>Ameerpet-500073</t>
+  </si>
+  <si>
+    <t>varuntech.com</t>
+  </si>
+  <si>
+    <t>RAMSA Tester</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>Ashokddd</t>
+  </si>
+  <si>
+    <t>RMSS</t>
+  </si>
+  <si>
+    <t>testers@mail.com</t>
+  </si>
+  <si>
+    <t>companyvat</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>StreetNum</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Podili</t>
+  </si>
+  <si>
+    <t>AMP, 3-3</t>
+  </si>
+  <si>
+    <t>BusiUnit</t>
+  </si>
+  <si>
+    <t>BranchName</t>
+  </si>
+  <si>
+    <t>LocationName</t>
+  </si>
+  <si>
+    <t>BU1-Test</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
   </si>
 </sst>
 </file>
@@ -71,8 +171,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,7 +493,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -384,4 +502,224 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1024</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4">
+        <v>500073</v>
+      </c>
+      <c r="G2" s="5">
+        <v>789654123012</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="22.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4">
+        <v>500016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/testData/departmentmaster.xlsx
+++ b/src/main/java/testData/departmentmaster.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="7170" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="7170" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DeptName" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="OrganizationName" sheetId="3" r:id="rId3"/>
     <sheet name="LacationMaster" sheetId="4" r:id="rId4"/>
     <sheet name="BranchMaster" sheetId="5" r:id="rId5"/>
+    <sheet name="LeaveConfiguration" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Description</t>
   </si>
@@ -136,6 +137,21 @@
   </si>
   <si>
     <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Bunit</t>
+  </si>
+  <si>
+    <t>WEEK</t>
+  </si>
+  <si>
+    <t>WeekEND</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
 </sst>
 </file>
@@ -685,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -722,4 +738,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>